--- a/iterationsNORMAL/iter_7/data.xlsx
+++ b/iterationsNORMAL/iter_7/data.xlsx
@@ -453,1652 +453,1652 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-25.8091585856569</v>
+        <v>-20.85169885771595</v>
       </c>
       <c r="B2" t="n">
-        <v>-13.09072297297046</v>
+        <v>33.81092277278093</v>
       </c>
       <c r="C2" t="n">
-        <v>-37.56241496373656</v>
+        <v>-30.13598062610009</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-23.43741941637249</v>
+        <v>26.92547673669458</v>
       </c>
       <c r="B3" t="n">
-        <v>16.00173656226168</v>
+        <v>35.44627435435622</v>
       </c>
       <c r="C3" t="n">
-        <v>52.89374704708014</v>
+        <v>-21.20266634805168</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-25.99537974725612</v>
+        <v>22.16438635020473</v>
       </c>
       <c r="B4" t="n">
-        <v>3.952903998372555</v>
+        <v>40.52951039282412</v>
       </c>
       <c r="C4" t="n">
-        <v>25.67248146031994</v>
+        <v>-28.57227427510658</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-32.39978569975857</v>
+        <v>27.02984846323029</v>
       </c>
       <c r="B5" t="n">
-        <v>30.72851297807027</v>
+        <v>-41.30285837630179</v>
       </c>
       <c r="C5" t="n">
-        <v>-22.27150565876034</v>
+        <v>-32.77391648783467</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-26.07693775007721</v>
+        <v>22.40946518858321</v>
       </c>
       <c r="B6" t="n">
-        <v>-30.13586339215512</v>
+        <v>27.12018194977954</v>
       </c>
       <c r="C6" t="n">
-        <v>35.36438901359507</v>
+        <v>13.74461294227184</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-27.6474236198106</v>
+        <v>-20.69562449944181</v>
       </c>
       <c r="B7" t="n">
-        <v>-26.79062472345302</v>
+        <v>-32.7096512763394</v>
       </c>
       <c r="C7" t="n">
-        <v>-31.98892712706905</v>
+        <v>-26.31739606344848</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-21.42387154153123</v>
+        <v>29.17216124956182</v>
       </c>
       <c r="B8" t="n">
-        <v>-22.15020957905851</v>
+        <v>24.91762249696668</v>
       </c>
       <c r="C8" t="n">
-        <v>82.00344872522132</v>
+        <v>11.58197733641726</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.07538094192533688</v>
+        <v>-24.245009698862</v>
       </c>
       <c r="B9" t="n">
-        <v>43.55455231271326</v>
+        <v>-18.74654931835042</v>
       </c>
       <c r="C9" t="n">
-        <v>39.2572021206389</v>
+        <v>14.396183724297</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>31.11602452777756</v>
+        <v>-35.79968257988053</v>
       </c>
       <c r="B10" t="n">
-        <v>-26.07158916353872</v>
+        <v>23.83060188274443</v>
       </c>
       <c r="C10" t="n">
-        <v>-24.47329977751984</v>
+        <v>12.96278809999434</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>12.22760304888512</v>
+        <v>28.11196194020605</v>
       </c>
       <c r="B11" t="n">
-        <v>-30.87489020635399</v>
+        <v>-29.30368709451725</v>
       </c>
       <c r="C11" t="n">
-        <v>-29.29486704718366</v>
+        <v>-21.44567004927669</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-20.12583467228987</v>
+        <v>28.51598390932419</v>
       </c>
       <c r="B12" t="n">
-        <v>63.56950771853766</v>
+        <v>22.36639599039906</v>
       </c>
       <c r="C12" t="n">
-        <v>-37.88625062598955</v>
+        <v>-16.00921201621602</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>81.71920694553681</v>
+        <v>24.29919228123097</v>
       </c>
       <c r="B13" t="n">
-        <v>-22.58748563735952</v>
+        <v>38.29231601783893</v>
       </c>
       <c r="C13" t="n">
-        <v>9.487127731590785</v>
+        <v>20.45817473164556</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-19.70552330184834</v>
+        <v>30.5814623488797</v>
       </c>
       <c r="B14" t="n">
-        <v>22.04446266454752</v>
+        <v>38.36530166088037</v>
       </c>
       <c r="C14" t="n">
-        <v>-11.57792189768507</v>
+        <v>24.39317758537699</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>47.24031903834131</v>
+        <v>-23.62605624825885</v>
       </c>
       <c r="B15" t="n">
-        <v>41.24971150564427</v>
+        <v>-33.6420556375317</v>
       </c>
       <c r="C15" t="n">
-        <v>93.58133921165421</v>
+        <v>11.70855505636597</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3.607510235055828</v>
+        <v>20.77952349749092</v>
       </c>
       <c r="B16" t="n">
-        <v>32.0583552159795</v>
+        <v>26.88100654766634</v>
       </c>
       <c r="C16" t="n">
-        <v>5.550618641191659</v>
+        <v>33.01918067397426</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>40.09040606701222</v>
+        <v>34.86593493253408</v>
       </c>
       <c r="B17" t="n">
-        <v>30.39160520828404</v>
+        <v>-28.59937800937533</v>
       </c>
       <c r="C17" t="n">
-        <v>-36.46652928048312</v>
+        <v>1.248694934228589</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-23.83517089215622</v>
+        <v>22.87557057109014</v>
       </c>
       <c r="B18" t="n">
-        <v>-30.07556649639446</v>
+        <v>-13.221695183049</v>
       </c>
       <c r="C18" t="n">
-        <v>16.41220493178981</v>
+        <v>-9.180742653617408</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>15.86629409185897</v>
+        <v>-20.07150989279612</v>
       </c>
       <c r="B19" t="n">
-        <v>-27.15393508051173</v>
+        <v>-25.79169328304785</v>
       </c>
       <c r="C19" t="n">
-        <v>25.3292287706313</v>
+        <v>-25.78238200109876</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-26.64108418981149</v>
+        <v>-18.54131789502274</v>
       </c>
       <c r="B20" t="n">
-        <v>-25.46282910146966</v>
+        <v>-32.16325874016576</v>
       </c>
       <c r="C20" t="n">
-        <v>-21.29063696084502</v>
+        <v>-32.05288947188316</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-23.01241268840476</v>
+        <v>25.66105903976222</v>
       </c>
       <c r="B21" t="n">
-        <v>8.8640248447937</v>
+        <v>35.68805570870656</v>
       </c>
       <c r="C21" t="n">
-        <v>-24.34876828406992</v>
+        <v>6.741678070894388</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-36.02350075366402</v>
+        <v>41.76151530654844</v>
       </c>
       <c r="B22" t="n">
-        <v>-42.81033652232879</v>
+        <v>-23.46170948881633</v>
       </c>
       <c r="C22" t="n">
-        <v>20.46619369242151</v>
+        <v>28.03785990169703</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.94739988590606</v>
+        <v>35.17663097193906</v>
       </c>
       <c r="B23" t="n">
-        <v>-33.89975458664732</v>
+        <v>-21.47121424943474</v>
       </c>
       <c r="C23" t="n">
-        <v>33.463197516751</v>
+        <v>18.5222608783886</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>7.568273312723807</v>
+        <v>30.99197345533684</v>
       </c>
       <c r="B24" t="n">
-        <v>6.087451920936309</v>
+        <v>-24.26426325579646</v>
       </c>
       <c r="C24" t="n">
-        <v>23.25767205145264</v>
+        <v>14.15124164079803</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>11.54911643244248</v>
+        <v>-21.091293008364</v>
       </c>
       <c r="B25" t="n">
-        <v>-25.60906002232919</v>
+        <v>-23.94917602167773</v>
       </c>
       <c r="C25" t="n">
-        <v>-21.49672879337176</v>
+        <v>-21.31845694893234</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-11.87936929272886</v>
+        <v>13.57736927307217</v>
       </c>
       <c r="B26" t="n">
-        <v>-39.85428668559644</v>
+        <v>18.79146541423924</v>
       </c>
       <c r="C26" t="n">
-        <v>-27.5595638911216</v>
+        <v>27.42204480453841</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>14.01001254410463</v>
+        <v>-17.71028799113071</v>
       </c>
       <c r="B27" t="n">
-        <v>0.2705204714363615</v>
+        <v>-16.20113774951353</v>
       </c>
       <c r="C27" t="n">
-        <v>36.25249088123221</v>
+        <v>-20.90014424103049</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>23.26400167572638</v>
+        <v>20.36441713577159</v>
       </c>
       <c r="B28" t="n">
-        <v>-13.84469550396829</v>
+        <v>-25.37856136631954</v>
       </c>
       <c r="C28" t="n">
-        <v>-32.58061725959527</v>
+        <v>-28.92901777461302</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>51.48832835428351</v>
+        <v>-28.39870980468801</v>
       </c>
       <c r="B29" t="n">
-        <v>-3.53676684707539</v>
+        <v>-19.7729024194193</v>
       </c>
       <c r="C29" t="n">
-        <v>-19.24641115493308</v>
+        <v>-30.64670704717204</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-19.46296263372016</v>
+        <v>26.68259523696592</v>
       </c>
       <c r="B30" t="n">
-        <v>70.39082224960875</v>
+        <v>24.01729310076685</v>
       </c>
       <c r="C30" t="n">
-        <v>-13.13206316032943</v>
+        <v>-20.52738541612221</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-28.99722695642038</v>
+        <v>18.39248552081626</v>
       </c>
       <c r="B31" t="n">
-        <v>-20.65969595110902</v>
+        <v>-46.17226781907594</v>
       </c>
       <c r="C31" t="n">
-        <v>-14.37435732771768</v>
+        <v>-17.87690739095101</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-18.64294545873386</v>
+        <v>24.45019032774446</v>
       </c>
       <c r="B32" t="n">
-        <v>-27.59325462785865</v>
+        <v>30.81791076342166</v>
       </c>
       <c r="C32" t="n">
-        <v>-32.56266302791077</v>
+        <v>-31.00292099284922</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-27.89654678254469</v>
+        <v>16.47334670065365</v>
       </c>
       <c r="B33" t="n">
-        <v>18.23740012803664</v>
+        <v>21.92950240163931</v>
       </c>
       <c r="C33" t="n">
-        <v>-29.83074573866773</v>
+        <v>-25.29881074146068</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-15.00035544670397</v>
+        <v>19.85713400185612</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.4699821459214876</v>
+        <v>29.52154175558319</v>
       </c>
       <c r="C34" t="n">
-        <v>50.07489107194685</v>
+        <v>32.67231317904945</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-10.33133955521694</v>
+        <v>-21.87319615179759</v>
       </c>
       <c r="B35" t="n">
-        <v>-40.77412331877283</v>
+        <v>-21.67723407612571</v>
       </c>
       <c r="C35" t="n">
-        <v>72.12432480893857</v>
+        <v>-6.44837993342447</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-36.93965347105807</v>
+        <v>-28.2175236601837</v>
       </c>
       <c r="B36" t="n">
-        <v>-22.58159502540967</v>
+        <v>-20.34470916116788</v>
       </c>
       <c r="C36" t="n">
-        <v>24.43827482967594</v>
+        <v>36.08931264559088</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-15.96368799007166</v>
+        <v>-7.885864333668628</v>
       </c>
       <c r="B37" t="n">
-        <v>-29.41623023434774</v>
+        <v>-27.83541959922824</v>
       </c>
       <c r="C37" t="n">
-        <v>55.62166334345854</v>
+        <v>20.87137786988021</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-32.46502731926088</v>
+        <v>30.97895972745068</v>
       </c>
       <c r="B38" t="n">
-        <v>41.68508259730617</v>
+        <v>-20.33490346706517</v>
       </c>
       <c r="C38" t="n">
-        <v>-5.911837060243843</v>
+        <v>24.59509598657686</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-25.51128274330826</v>
+        <v>3.895606289541885</v>
       </c>
       <c r="B39" t="n">
-        <v>26.08557100455816</v>
+        <v>-11.44577760917078</v>
       </c>
       <c r="C39" t="n">
-        <v>-36.37572480270322</v>
+        <v>-30.56338223739115</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>13.20155698258605</v>
+        <v>-36.56697841712239</v>
       </c>
       <c r="B40" t="n">
-        <v>-9.171144378272958</v>
+        <v>42.86251108760108</v>
       </c>
       <c r="C40" t="n">
-        <v>-20.21023985606669</v>
+        <v>-14.38324914278624</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>43.87395690172579</v>
+        <v>30.75418467566413</v>
       </c>
       <c r="B41" t="n">
-        <v>35.37856612143164</v>
+        <v>-12.87728849671088</v>
       </c>
       <c r="C41" t="n">
-        <v>12.40316842174003</v>
+        <v>27.45346162488952</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-17.53308055679077</v>
+        <v>-9.888262642493972</v>
       </c>
       <c r="B42" t="n">
-        <v>-1.060009670216576</v>
+        <v>24.66951346025943</v>
       </c>
       <c r="C42" t="n">
-        <v>32.33622147703466</v>
+        <v>-32.08338173212172</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>32.25566937649625</v>
+        <v>-18.3830013300548</v>
       </c>
       <c r="B43" t="n">
-        <v>8.282567025685285</v>
+        <v>12.94217494029786</v>
       </c>
       <c r="C43" t="n">
-        <v>-39.62726846001109</v>
+        <v>-8.353421517763511</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-25.27066954374606</v>
+        <v>-29.17152028683975</v>
       </c>
       <c r="B44" t="n">
-        <v>33.145795221004</v>
+        <v>26.13779278665647</v>
       </c>
       <c r="C44" t="n">
-        <v>57.43982961112362</v>
+        <v>10.31477823954401</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-12.03735080706969</v>
+        <v>-34.37894513588819</v>
       </c>
       <c r="B45" t="n">
-        <v>-14.91718581723186</v>
+        <v>-30.96439858280719</v>
       </c>
       <c r="C45" t="n">
-        <v>-23.07691512210956</v>
+        <v>33.13574722603769</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3.22853842290737</v>
+        <v>33.62010712199839</v>
       </c>
       <c r="B46" t="n">
-        <v>-14.98476877340951</v>
+        <v>-28.39905977537734</v>
       </c>
       <c r="C46" t="n">
-        <v>1.526355656562878</v>
+        <v>14.43101228769684</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-30.29773140608171</v>
+        <v>-26.08951123243926</v>
       </c>
       <c r="B47" t="n">
-        <v>84.69816850157092</v>
+        <v>-19.80940509386301</v>
       </c>
       <c r="C47" t="n">
-        <v>0.3946480529032735</v>
+        <v>-28.33805678951923</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>19.22616203526839</v>
+        <v>29.44977330278814</v>
       </c>
       <c r="B48" t="n">
-        <v>40.27017140433028</v>
+        <v>-13.86529833224907</v>
       </c>
       <c r="C48" t="n">
-        <v>-21.4045389726321</v>
+        <v>25.96057907861803</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-26.92212194341545</v>
+        <v>-31.27344153969856</v>
       </c>
       <c r="B49" t="n">
-        <v>-26.89467372522706</v>
+        <v>-23.13312985162003</v>
       </c>
       <c r="C49" t="n">
-        <v>46.54191477990885</v>
+        <v>19.66201060307108</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>25.98469003010685</v>
+        <v>-33.20663758263455</v>
       </c>
       <c r="B50" t="n">
-        <v>-10.46673350156432</v>
+        <v>-33.79598685109713</v>
       </c>
       <c r="C50" t="n">
-        <v>-11.93659782689955</v>
+        <v>18.10204626323352</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-0.6129430422538706</v>
+        <v>40.29000629034604</v>
       </c>
       <c r="B51" t="n">
-        <v>-6.098020941866016</v>
+        <v>-28.82654511900083</v>
       </c>
       <c r="C51" t="n">
-        <v>-39.66664358145898</v>
+        <v>-16.29174523139073</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-34.68618384224595</v>
+        <v>-20.49796720444647</v>
       </c>
       <c r="B52" t="n">
-        <v>18.61998912601678</v>
+        <v>-32.81107935209911</v>
       </c>
       <c r="C52" t="n">
-        <v>-26.82897328859486</v>
+        <v>-13.4051143030357</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-28.22592122344682</v>
+        <v>17.70867162463794</v>
       </c>
       <c r="B53" t="n">
-        <v>-13.71294620065435</v>
+        <v>30.11719364484584</v>
       </c>
       <c r="C53" t="n">
-        <v>8.29374325444647</v>
+        <v>32.84062638341279</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.06434483575891</v>
+        <v>27.57419054739414</v>
       </c>
       <c r="B54" t="n">
-        <v>11.12651707069479</v>
+        <v>24.00110191999633</v>
       </c>
       <c r="C54" t="n">
-        <v>27.26262256560506</v>
+        <v>-24.40301443670674</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-11.28056470321257</v>
+        <v>-34.56968436882725</v>
       </c>
       <c r="B55" t="n">
-        <v>21.8827366377321</v>
+        <v>31.3566028693819</v>
       </c>
       <c r="C55" t="n">
-        <v>-15.76646178481407</v>
+        <v>40.05032129260562</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-38.13154603508011</v>
+        <v>-13.35234040979639</v>
       </c>
       <c r="B56" t="n">
-        <v>39.57763806905673</v>
+        <v>25.15206871624845</v>
       </c>
       <c r="C56" t="n">
-        <v>-30.11508960814235</v>
+        <v>12.68197845859699</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-21.59496436233922</v>
+        <v>30.48783020386998</v>
       </c>
       <c r="B57" t="n">
-        <v>-13.31413232569286</v>
+        <v>-26.78674597028144</v>
       </c>
       <c r="C57" t="n">
-        <v>20.75063098367934</v>
+        <v>29.32373116484546</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>13.46657438033914</v>
+        <v>11.41201451559758</v>
       </c>
       <c r="B58" t="n">
-        <v>40.38154207454809</v>
+        <v>22.88505004087396</v>
       </c>
       <c r="C58" t="n">
-        <v>58.56041947712516</v>
+        <v>-34.18107768821452</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-29.15494483653691</v>
+        <v>19.63228665545616</v>
       </c>
       <c r="B59" t="n">
-        <v>65.21191239626171</v>
+        <v>-25.03708242779803</v>
       </c>
       <c r="C59" t="n">
-        <v>27.95576209429233</v>
+        <v>18.29349212625312</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-20.33959039294552</v>
+        <v>35.01171837371417</v>
       </c>
       <c r="B60" t="n">
-        <v>53.94494090387018</v>
+        <v>30.4696080694469</v>
       </c>
       <c r="C60" t="n">
-        <v>-26.12420238964744</v>
+        <v>16.07780480842444</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>5.640245549861747</v>
+        <v>24.45445479951</v>
       </c>
       <c r="B61" t="n">
-        <v>-37.95772692612999</v>
+        <v>10.55206548769084</v>
       </c>
       <c r="C61" t="n">
-        <v>42.17908812114717</v>
+        <v>22.35583903243056</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-28.38961611656219</v>
+        <v>-23.75894806600635</v>
       </c>
       <c r="B62" t="n">
-        <v>-22.22873530397515</v>
+        <v>-1.874333800263281</v>
       </c>
       <c r="C62" t="n">
-        <v>73.43614920889031</v>
+        <v>-24.50949427345199</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-27.63050128610908</v>
+        <v>-18.47520129248715</v>
       </c>
       <c r="B63" t="n">
-        <v>31.72411811603605</v>
+        <v>-39.35485605081534</v>
       </c>
       <c r="C63" t="n">
-        <v>-30.11939096012145</v>
+        <v>16.10239608991081</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-28.64753238530299</v>
+        <v>-25.83059318650143</v>
       </c>
       <c r="B64" t="n">
-        <v>6.60491378250423</v>
+        <v>-24.88887648573611</v>
       </c>
       <c r="C64" t="n">
-        <v>-20.03720107481093</v>
+        <v>24.05443076970906</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-18.88052516739877</v>
+        <v>11.97609470326721</v>
       </c>
       <c r="B65" t="n">
-        <v>-32.02032018671476</v>
+        <v>-33.19055302272443</v>
       </c>
       <c r="C65" t="n">
-        <v>-20.91884876334105</v>
+        <v>20.9290748983989</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>24.56808499523081</v>
+        <v>35.17751523853362</v>
       </c>
       <c r="B66" t="n">
-        <v>-36.98094287918486</v>
+        <v>29.0504671337962</v>
       </c>
       <c r="C66" t="n">
-        <v>-8.760429381967407</v>
+        <v>-35.30296820563894</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>9.733112299714248</v>
+        <v>29.00604472329278</v>
       </c>
       <c r="B67" t="n">
-        <v>-15.31892281411842</v>
+        <v>25.85795767559075</v>
       </c>
       <c r="C67" t="n">
-        <v>19.03460840649258</v>
+        <v>25.84963345137058</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.777800934426527</v>
+        <v>-36.04126085135815</v>
       </c>
       <c r="B68" t="n">
-        <v>-38.3783540029191</v>
+        <v>23.12569327972415</v>
       </c>
       <c r="C68" t="n">
-        <v>24.38157003717246</v>
+        <v>-31.95269508846811</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-38.23542800601552</v>
+        <v>-31.3460511476879</v>
       </c>
       <c r="B69" t="n">
-        <v>27.16805886406871</v>
+        <v>8.686197641238451</v>
       </c>
       <c r="C69" t="n">
-        <v>53.53394799882046</v>
+        <v>29.72113682145753</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>29.18879660441801</v>
+        <v>15.71988694571144</v>
       </c>
       <c r="B70" t="n">
-        <v>22.17329636312115</v>
+        <v>-41.38549676135329</v>
       </c>
       <c r="C70" t="n">
-        <v>33.67569584154784</v>
+        <v>27.44156981391284</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>68.22617616235657</v>
+        <v>11.23919033613422</v>
       </c>
       <c r="B71" t="n">
-        <v>15.20932345724784</v>
+        <v>-33.5766252440656</v>
       </c>
       <c r="C71" t="n">
-        <v>24.07247438284374</v>
+        <v>-24.5665178681131</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-22.41065587550619</v>
+        <v>-27.08149286178726</v>
       </c>
       <c r="B72" t="n">
-        <v>-7.098401961769095</v>
+        <v>21.81822475133646</v>
       </c>
       <c r="C72" t="n">
-        <v>-43.52919419610426</v>
+        <v>-31.30467787110124</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-16.696095584609</v>
+        <v>19.33344770005228</v>
       </c>
       <c r="B73" t="n">
-        <v>7.136758268608213</v>
+        <v>31.04940304637087</v>
       </c>
       <c r="C73" t="n">
-        <v>35.69509055136624</v>
+        <v>16.52426653502251</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>30.34334273396671</v>
+        <v>47.34448654442151</v>
       </c>
       <c r="B74" t="n">
-        <v>15.19357339095692</v>
+        <v>34.81972298876193</v>
       </c>
       <c r="C74" t="n">
-        <v>3.888745728004086</v>
+        <v>21.78155413535262</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-22.58529306731013</v>
+        <v>-31.68229195017593</v>
       </c>
       <c r="B75" t="n">
-        <v>26.32983358873012</v>
+        <v>-32.19017241620845</v>
       </c>
       <c r="C75" t="n">
-        <v>-37.08720259562028</v>
+        <v>15.13443271623257</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-26.36120429667828</v>
+        <v>30.60132963057538</v>
       </c>
       <c r="B76" t="n">
-        <v>-8.091762144156176</v>
+        <v>-21.21239044682</v>
       </c>
       <c r="C76" t="n">
-        <v>-29.01181252547384</v>
+        <v>30.75338219199029</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-23.14008548185782</v>
+        <v>13.9317538337119</v>
       </c>
       <c r="B77" t="n">
-        <v>4.730169931504967</v>
+        <v>17.74926507680359</v>
       </c>
       <c r="C77" t="n">
-        <v>-16.06083088949062</v>
+        <v>-31.48567730799168</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>30.38333108833701</v>
+        <v>11.2344060739214</v>
       </c>
       <c r="B78" t="n">
-        <v>-22.01933524151467</v>
+        <v>-17.13928193097043</v>
       </c>
       <c r="C78" t="n">
-        <v>-13.68370793069282</v>
+        <v>-28.08024824767855</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>9.551430028169724</v>
+        <v>-18.2705621967161</v>
       </c>
       <c r="B79" t="n">
-        <v>23.05588967969753</v>
+        <v>-19.82714331335127</v>
       </c>
       <c r="C79" t="n">
-        <v>-36.16661523583391</v>
+        <v>-18.273289065944</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>7.402749133932599</v>
+        <v>-21.38457140415393</v>
       </c>
       <c r="B80" t="n">
-        <v>-37.62634226445675</v>
+        <v>23.24826226314351</v>
       </c>
       <c r="C80" t="n">
-        <v>25.79513119324609</v>
+        <v>-15.57853820765152</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>43.40771450983267</v>
+        <v>27.60544011060983</v>
       </c>
       <c r="B81" t="n">
-        <v>36.05079703733104</v>
+        <v>-35.15125306213628</v>
       </c>
       <c r="C81" t="n">
-        <v>7.752831414252412</v>
+        <v>-26.57612130453915</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-28.72987567676682</v>
+        <v>-23.48111787937163</v>
       </c>
       <c r="B82" t="n">
-        <v>47.17169550785344</v>
+        <v>24.60591743302153</v>
       </c>
       <c r="C82" t="n">
-        <v>-12.26071370866961</v>
+        <v>-35.46949189015166</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-20.8402078906514</v>
+        <v>-34.16870604507587</v>
       </c>
       <c r="B83" t="n">
-        <v>30.35717570761004</v>
+        <v>17.57335168330129</v>
       </c>
       <c r="C83" t="n">
-        <v>57.05356455689927</v>
+        <v>12.87009280604981</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-28.63741910573494</v>
+        <v>12.07851854380594</v>
       </c>
       <c r="B84" t="n">
-        <v>-26.115074194772</v>
+        <v>16.50998153173213</v>
       </c>
       <c r="C84" t="n">
-        <v>-33.02401483630766</v>
+        <v>-10.07517046400951</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>23.20693982032077</v>
+        <v>21.85872264269661</v>
       </c>
       <c r="B85" t="n">
-        <v>34.90966347722966</v>
+        <v>29.94297773351659</v>
       </c>
       <c r="C85" t="n">
-        <v>-27.18007966181141</v>
+        <v>-19.06851566545063</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>57.87138523047678</v>
+        <v>-14.35516017601651</v>
       </c>
       <c r="B86" t="n">
-        <v>-38.93560005974162</v>
+        <v>-16.42280069292385</v>
       </c>
       <c r="C86" t="n">
-        <v>-38.57335717883001</v>
+        <v>27.67146683974261</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-17.30864002190928</v>
+        <v>33.31066687952723</v>
       </c>
       <c r="B87" t="n">
-        <v>38.70633187176963</v>
+        <v>18.08923477512669</v>
       </c>
       <c r="C87" t="n">
-        <v>-20.16076447927025</v>
+        <v>-32.19588836026537</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>51.11622010409272</v>
+        <v>-29.97531473811798</v>
       </c>
       <c r="B88" t="n">
-        <v>-30.13686018966833</v>
+        <v>-8.608636280141395</v>
       </c>
       <c r="C88" t="n">
-        <v>-19.89527191139873</v>
+        <v>28.45432908424138</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>-11.26261832551974</v>
+        <v>-16.03195123679722</v>
       </c>
       <c r="B89" t="n">
-        <v>-39.84359851969558</v>
+        <v>28.03154861700924</v>
       </c>
       <c r="C89" t="n">
-        <v>-20.57661476814994</v>
+        <v>-28.8190834833116</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-29.29278886015436</v>
+        <v>30.81054007036069</v>
       </c>
       <c r="B90" t="n">
-        <v>-22.5224811359435</v>
+        <v>16.87357318173618</v>
       </c>
       <c r="C90" t="n">
-        <v>4.127728609909816</v>
+        <v>-26.64131284120349</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>55.19366299234411</v>
+        <v>-39.17051135975604</v>
       </c>
       <c r="B91" t="n">
-        <v>19.13399677628808</v>
+        <v>37.89562470340971</v>
       </c>
       <c r="C91" t="n">
-        <v>-39.05770482200247</v>
+        <v>-20.91200922949613</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>82.61745155801017</v>
+        <v>43.07934054547705</v>
       </c>
       <c r="B92" t="n">
-        <v>-14.69846474187501</v>
+        <v>-31.7923482465643</v>
       </c>
       <c r="C92" t="n">
-        <v>-13.15170678342769</v>
+        <v>24.07850736232929</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>34.80608026030612</v>
+        <v>-19.34072405739662</v>
       </c>
       <c r="B93" t="n">
-        <v>-24.58591738942282</v>
+        <v>24.71351074915636</v>
       </c>
       <c r="C93" t="n">
-        <v>-37.09722799350386</v>
+        <v>-21.65395148493806</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-12.73051211916989</v>
+        <v>-44.0132525826014</v>
       </c>
       <c r="B94" t="n">
-        <v>-28.8181169721381</v>
+        <v>18.84905045415135</v>
       </c>
       <c r="C94" t="n">
-        <v>37.55814861237859</v>
+        <v>15.98791126114842</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-31.4060315258045</v>
+        <v>23.02043577174813</v>
       </c>
       <c r="B95" t="n">
-        <v>-15.55869872831189</v>
+        <v>21.99994411995994</v>
       </c>
       <c r="C95" t="n">
-        <v>37.24173211224371</v>
+        <v>27.5269538691809</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>-18.32588635561149</v>
+        <v>27.21026903786623</v>
       </c>
       <c r="B96" t="n">
-        <v>-16.92471801280079</v>
+        <v>-30.22694026108427</v>
       </c>
       <c r="C96" t="n">
-        <v>0.3754281301304137</v>
+        <v>-23.13864449923423</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>34.6845935664924</v>
+        <v>14.80724159210405</v>
       </c>
       <c r="B97" t="n">
-        <v>76.78779330604478</v>
+        <v>22.30936752024476</v>
       </c>
       <c r="C97" t="n">
-        <v>-17.4489488374498</v>
+        <v>-18.60369282530205</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>28.70610900286615</v>
+        <v>24.55862792049934</v>
       </c>
       <c r="B98" t="n">
-        <v>10.10403161558053</v>
+        <v>18.86653043586361</v>
       </c>
       <c r="C98" t="n">
-        <v>2.309449711922925</v>
+        <v>-27.12098987207236</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-52.75248048375665</v>
+        <v>20.45023495762483</v>
       </c>
       <c r="B99" t="n">
-        <v>-30.42224429835735</v>
+        <v>26.11778387009107</v>
       </c>
       <c r="C99" t="n">
-        <v>50.13572995026702</v>
+        <v>-24.69838248526482</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>51.35796067833577</v>
+        <v>18.79997898982243</v>
       </c>
       <c r="B100" t="n">
-        <v>16.16440758736156</v>
+        <v>-12.20305713482224</v>
       </c>
       <c r="C100" t="n">
-        <v>-24.69101372502403</v>
+        <v>-25.47623520446222</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-9.237028025583882</v>
+        <v>23.5995929772292</v>
       </c>
       <c r="B101" t="n">
-        <v>-16.86254788070757</v>
+        <v>21.36390689674573</v>
       </c>
       <c r="C101" t="n">
-        <v>-38.495250567293</v>
+        <v>23.18528151250708</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-0.4094465673936723</v>
+        <v>-17.16533108376959</v>
       </c>
       <c r="B102" t="n">
-        <v>67.48009807052767</v>
+        <v>-13.87478679980354</v>
       </c>
       <c r="C102" t="n">
-        <v>7.566782761709593</v>
+        <v>31.86084967529052</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>15.24752355480466</v>
+        <v>22.447950400989</v>
       </c>
       <c r="B103" t="n">
-        <v>-34.04912905878896</v>
+        <v>-24.65451913008008</v>
       </c>
       <c r="C103" t="n">
-        <v>-6.591762473207091</v>
+        <v>26.42530848387221</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-33.72453014442112</v>
+        <v>-26.85838051494054</v>
       </c>
       <c r="B104" t="n">
-        <v>45.07126164257933</v>
+        <v>33.98222997175823</v>
       </c>
       <c r="C104" t="n">
-        <v>-11.27498029587085</v>
+        <v>23.56131091004716</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-12.80251244341426</v>
+        <v>-32.91411415401622</v>
       </c>
       <c r="B105" t="n">
-        <v>-26.74899627023185</v>
+        <v>26.98486150676444</v>
       </c>
       <c r="C105" t="n">
-        <v>73.64717984205916</v>
+        <v>21.52075245844118</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>56.28305412841264</v>
+        <v>28.62789218301288</v>
       </c>
       <c r="B106" t="n">
-        <v>25.13041462729374</v>
+        <v>-27.65273490785866</v>
       </c>
       <c r="C106" t="n">
-        <v>17.10660959973172</v>
+        <v>-24.4875339218812</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-17.4049768163407</v>
+        <v>26.63185076098837</v>
       </c>
       <c r="B107" t="n">
-        <v>34.13520772460746</v>
+        <v>30.40347527746796</v>
       </c>
       <c r="C107" t="n">
-        <v>-21.42173627348244</v>
+        <v>-31.34614985745633</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-17.53090021287596</v>
+        <v>36.02416822336664</v>
       </c>
       <c r="B108" t="n">
-        <v>32.36386522920338</v>
+        <v>-30.32863350025734</v>
       </c>
       <c r="C108" t="n">
-        <v>19.00036199684282</v>
+        <v>-31.69827230295764</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-32.93297057578657</v>
+        <v>14.07786608626286</v>
       </c>
       <c r="B109" t="n">
-        <v>-9.888159588483902</v>
+        <v>-4.222788161340574</v>
       </c>
       <c r="C109" t="n">
-        <v>-21.75965994175185</v>
+        <v>44.59074264094018</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-48.87790652894225</v>
+        <v>-26.68585642350746</v>
       </c>
       <c r="B110" t="n">
-        <v>-25.84471553103365</v>
+        <v>-25.67082663608278</v>
       </c>
       <c r="C110" t="n">
-        <v>5.052580845361536</v>
+        <v>-33.15145710225126</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>44.56327543904654</v>
+        <v>-25.6078019162404</v>
       </c>
       <c r="B111" t="n">
-        <v>-41.42580776954793</v>
+        <v>36.8221125487965</v>
       </c>
       <c r="C111" t="n">
-        <v>-8.281082409416763</v>
+        <v>-33.5027129182165</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>91.76580087951317</v>
+        <v>-17.14191949402851</v>
       </c>
       <c r="B112" t="n">
-        <v>8.768479432196278</v>
+        <v>-21.76414733977802</v>
       </c>
       <c r="C112" t="n">
-        <v>-17.32475638398225</v>
+        <v>-35.2824841900424</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-33.35037637119861</v>
+        <v>13.76750935239598</v>
       </c>
       <c r="B113" t="n">
-        <v>-2.808382703433697</v>
+        <v>-19.05426838317224</v>
       </c>
       <c r="C113" t="n">
-        <v>-25.5873747488699</v>
+        <v>26.75924536097833</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>31.81632199784977</v>
+        <v>24.4044424764414</v>
       </c>
       <c r="B114" t="n">
-        <v>19.45657414111592</v>
+        <v>-24.20833161434158</v>
       </c>
       <c r="C114" t="n">
-        <v>-36.9542727607211</v>
+        <v>26.21292426688266</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-23.00241460797181</v>
+        <v>-26.8906685506512</v>
       </c>
       <c r="B115" t="n">
-        <v>-32.16977511410509</v>
+        <v>-18.23913463475706</v>
       </c>
       <c r="C115" t="n">
-        <v>60.2897070310723</v>
+        <v>25.0946443239751</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>37.55145028430552</v>
+        <v>20.96249023214938</v>
       </c>
       <c r="B116" t="n">
-        <v>-27.7368759919435</v>
+        <v>-23.728897721891</v>
       </c>
       <c r="C116" t="n">
-        <v>-34.83922313572959</v>
+        <v>43.84446610877482</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>14.91129013629983</v>
+        <v>-25.52649491019901</v>
       </c>
       <c r="B117" t="n">
-        <v>-17.00444504630107</v>
+        <v>-26.01762234621745</v>
       </c>
       <c r="C117" t="n">
-        <v>-21.8609907402827</v>
+        <v>40.22043340952995</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-24.81764972797492</v>
+        <v>35.07451552017285</v>
       </c>
       <c r="B118" t="n">
-        <v>-33.2441302261414</v>
+        <v>8.250322680294921</v>
       </c>
       <c r="C118" t="n">
-        <v>56.47657025495246</v>
+        <v>-17.40834853468203</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-16.83480360813013</v>
+        <v>-26.67575296832266</v>
       </c>
       <c r="B119" t="n">
-        <v>-31.22761946282176</v>
+        <v>34.34659401432314</v>
       </c>
       <c r="C119" t="n">
-        <v>-25.11912045988559</v>
+        <v>22.57681800076799</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>10.14828509339999</v>
+        <v>-18.59074801707691</v>
       </c>
       <c r="B120" t="n">
-        <v>-20.08550309129424</v>
+        <v>-17.57719628540297</v>
       </c>
       <c r="C120" t="n">
-        <v>16.90949873190178</v>
+        <v>27.89118597751393</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-35.34725224046159</v>
+        <v>16.80801531118157</v>
       </c>
       <c r="B121" t="n">
-        <v>-21.3164953287472</v>
+        <v>30.00502034474428</v>
       </c>
       <c r="C121" t="n">
-        <v>77.26796576805769</v>
+        <v>-20.92404338000987</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>41.03577014421965</v>
+        <v>-21.53731979554889</v>
       </c>
       <c r="B122" t="n">
-        <v>-19.73889845993513</v>
+        <v>-28.85972104027746</v>
       </c>
       <c r="C122" t="n">
-        <v>-8.761856683481335</v>
+        <v>-27.50234827971558</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>3.93918931527256</v>
+        <v>-17.62668036983659</v>
       </c>
       <c r="B123" t="n">
-        <v>27.12012894213709</v>
+        <v>30.18475220035953</v>
       </c>
       <c r="C123" t="n">
-        <v>21.56996978783492</v>
+        <v>-15.71158498596458</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>26.91551070063115</v>
+        <v>-31.66289586042085</v>
       </c>
       <c r="B124" t="n">
-        <v>-31.2571443493841</v>
+        <v>-41.6559685071997</v>
       </c>
       <c r="C124" t="n">
-        <v>9.077771683844842</v>
+        <v>35.87707424246602</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-3.418431876629133</v>
+        <v>21.76079565863849</v>
       </c>
       <c r="B125" t="n">
-        <v>-1.339878443599656</v>
+        <v>-20.26459550666556</v>
       </c>
       <c r="C125" t="n">
-        <v>20.7084690475849</v>
+        <v>29.94155761204707</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-12.28574144527184</v>
+        <v>-26.12883035211269</v>
       </c>
       <c r="B126" t="n">
-        <v>42.75021316041472</v>
+        <v>22.72986984815928</v>
       </c>
       <c r="C126" t="n">
-        <v>45.39071310922019</v>
+        <v>-23.80258340476386</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-16.28420108424384</v>
+        <v>-20.20200162024912</v>
       </c>
       <c r="B127" t="n">
-        <v>-32.46780091155445</v>
+        <v>-15.6834272431472</v>
       </c>
       <c r="C127" t="n">
-        <v>-25.63636300815389</v>
+        <v>24.20372497400009</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-16.63330627541598</v>
+        <v>-37.67637003584494</v>
       </c>
       <c r="B128" t="n">
-        <v>-26.6150274517668</v>
+        <v>19.80615548695376</v>
       </c>
       <c r="C128" t="n">
-        <v>32.99907162321198</v>
+        <v>-9.52525903486948</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-31.01621669046174</v>
+        <v>-11.46337775653287</v>
       </c>
       <c r="B129" t="n">
-        <v>-10.07578215781222</v>
+        <v>30.72656549518857</v>
       </c>
       <c r="C129" t="n">
-        <v>-19.59798324549155</v>
+        <v>-33.23915648595352</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>32.57108039122154</v>
+        <v>-23.2152702847513</v>
       </c>
       <c r="B130" t="n">
-        <v>-33.5496470262156</v>
+        <v>-26.24943552749157</v>
       </c>
       <c r="C130" t="n">
-        <v>7.950421796589249</v>
+        <v>20.90246865351249</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>59.03874225683517</v>
+        <v>-41.6382923028568</v>
       </c>
       <c r="B131" t="n">
-        <v>-49.74955305677304</v>
+        <v>31.1097228786258</v>
       </c>
       <c r="C131" t="n">
-        <v>-0.6238386987318899</v>
+        <v>-17.34832338431012</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-20.53230816612047</v>
+        <v>20.78550843084341</v>
       </c>
       <c r="B132" t="n">
-        <v>-26.34540636926904</v>
+        <v>-24.36586588761443</v>
       </c>
       <c r="C132" t="n">
-        <v>-41.61428655861332</v>
+        <v>-16.81118255273764</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-1.659863040335064</v>
+        <v>14.72946160348872</v>
       </c>
       <c r="B133" t="n">
-        <v>55.52776692955936</v>
+        <v>18.21823783839978</v>
       </c>
       <c r="C133" t="n">
-        <v>22.10213812374666</v>
+        <v>20.77192680019332</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>35.84151933805894</v>
+        <v>8.173986568855593</v>
       </c>
       <c r="B134" t="n">
-        <v>-20.98589468172203</v>
+        <v>23.78070830895487</v>
       </c>
       <c r="C134" t="n">
-        <v>12.03452427111614</v>
+        <v>-29.26472028173589</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-27.62952001146323</v>
+        <v>-29.48009986213826</v>
       </c>
       <c r="B135" t="n">
-        <v>13.49323228610471</v>
+        <v>-21.47270985430259</v>
       </c>
       <c r="C135" t="n">
-        <v>-3.783482354675188</v>
+        <v>-18.9698678770974</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>-31.61297310020644</v>
+        <v>21.15943432985289</v>
       </c>
       <c r="B136" t="n">
-        <v>-20.21659510280008</v>
+        <v>-46.53401856671709</v>
       </c>
       <c r="C136" t="n">
-        <v>-33.1024677924868</v>
+        <v>22.39150164056504</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>31.27886443849409</v>
+        <v>-37.49241768873993</v>
       </c>
       <c r="B137" t="n">
-        <v>-14.26465057567372</v>
+        <v>33.82558468727406</v>
       </c>
       <c r="C137" t="n">
-        <v>-35.978536720755</v>
+        <v>-20.05032871458151</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-39.56603122258523</v>
+        <v>15.94458820762045</v>
       </c>
       <c r="B138" t="n">
-        <v>29.29685258781059</v>
+        <v>30.61683927265103</v>
       </c>
       <c r="C138" t="n">
-        <v>48.4758283420745</v>
+        <v>-18.42715106744066</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>-36.25089862656343</v>
+        <v>-24.79876543151787</v>
       </c>
       <c r="B139" t="n">
-        <v>61.53689042052119</v>
+        <v>-27.57650213528325</v>
       </c>
       <c r="C139" t="n">
-        <v>-24.29908111933728</v>
+        <v>30.92279921445529</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-29.88835985651713</v>
+        <v>18.14524844416436</v>
       </c>
       <c r="B140" t="n">
-        <v>59.17855623481046</v>
+        <v>40.02680795221541</v>
       </c>
       <c r="C140" t="n">
-        <v>25.13649446557884</v>
+        <v>31.84303424341773</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>36.85856709963359</v>
+        <v>-22.28032199598985</v>
       </c>
       <c r="B141" t="n">
-        <v>9.896112695349212</v>
+        <v>17.90200408982699</v>
       </c>
       <c r="C141" t="n">
-        <v>35.15971141131777</v>
+        <v>-49.91010728283629</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>24.43700541955259</v>
+        <v>30.36159916253351</v>
       </c>
       <c r="B142" t="n">
-        <v>75.81526612190939</v>
+        <v>31.96762299352191</v>
       </c>
       <c r="C142" t="n">
-        <v>-34.86659456170042</v>
+        <v>33.4799067118322</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>-20.99545563315996</v>
+        <v>-26.81309967977177</v>
       </c>
       <c r="B143" t="n">
-        <v>-35.37441928905361</v>
+        <v>24.88271225324139</v>
       </c>
       <c r="C143" t="n">
-        <v>-29.15479583508503</v>
+        <v>27.22261586098301</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>-5.665887526915722</v>
+        <v>-27.60265435254466</v>
       </c>
       <c r="B144" t="n">
-        <v>61.20584734018907</v>
+        <v>22.26754199983577</v>
       </c>
       <c r="C144" t="n">
-        <v>15.41885895027481</v>
+        <v>24.23984451257751</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>-39.85421858974568</v>
+        <v>28.14854808429322</v>
       </c>
       <c r="B145" t="n">
-        <v>-21.02335438676391</v>
+        <v>21.89538293921194</v>
       </c>
       <c r="C145" t="n">
-        <v>-18.92267084044248</v>
+        <v>-29.001610738069</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>-11.96038993987189</v>
+        <v>-18.40169678424159</v>
       </c>
       <c r="B146" t="n">
-        <v>-21.04035120376998</v>
+        <v>-19.89015188387899</v>
       </c>
       <c r="C146" t="n">
-        <v>60.13854261566812</v>
+        <v>22.52826623788632</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>12.73290110300515</v>
+        <v>18.03309951563135</v>
       </c>
       <c r="B147" t="n">
-        <v>-25.01437728526826</v>
+        <v>-33.77248116308476</v>
       </c>
       <c r="C147" t="n">
-        <v>40.70415406456789</v>
+        <v>37.41001997010406</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>-30.30218042737397</v>
+        <v>-14.20457509936015</v>
       </c>
       <c r="B148" t="n">
-        <v>18.71479263081782</v>
+        <v>-22.61759028701869</v>
       </c>
       <c r="C148" t="n">
-        <v>42.5264171412075</v>
+        <v>-32.59488115304399</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>60.63120381531302</v>
+        <v>29.0742972200719</v>
       </c>
       <c r="B149" t="n">
-        <v>40.04927614599036</v>
+        <v>-23.61746225061472</v>
       </c>
       <c r="C149" t="n">
-        <v>65.38182971455706</v>
+        <v>33.52363434628419</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>84.26273915834842</v>
+        <v>-26.28598613762219</v>
       </c>
       <c r="B150" t="n">
-        <v>30.06361433089004</v>
+        <v>-17.35188727063879</v>
       </c>
       <c r="C150" t="n">
-        <v>12.48830940324109</v>
+        <v>15.58224959742259</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>-24.91676905936648</v>
+        <v>-40.22084832657234</v>
       </c>
       <c r="B151" t="n">
-        <v>-20.8491206189683</v>
+        <v>-29.79139694856548</v>
       </c>
       <c r="C151" t="n">
-        <v>50.85423534413164</v>
+        <v>-21.86360799177406</v>
       </c>
     </row>
   </sheetData>
@@ -2139,1107 +2139,1107 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-27.64236543291715</v>
+        <v>-21.99772438924462</v>
       </c>
       <c r="B2" t="n">
-        <v>-25.69211630794853</v>
+        <v>-36.18076308820712</v>
       </c>
       <c r="C2" t="n">
-        <v>-11.74216273197603</v>
+        <v>-28.13489946566822</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-28.33403094989747</v>
+        <v>16.18591453309291</v>
       </c>
       <c r="B3" t="n">
-        <v>-22.25937715287819</v>
+        <v>13.72258789158755</v>
       </c>
       <c r="C3" t="n">
-        <v>-31.75401529267668</v>
+        <v>19.18400416008628</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-23.49408174693168</v>
+        <v>15.28664756469062</v>
       </c>
       <c r="B4" t="n">
-        <v>-23.31067528584523</v>
+        <v>-26.26032740575348</v>
       </c>
       <c r="C4" t="n">
-        <v>-18.80460540973754</v>
+        <v>12.54530846652051</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-25.50662159156296</v>
+        <v>-29.19252674164374</v>
       </c>
       <c r="B5" t="n">
-        <v>7.619904915121375</v>
+        <v>25.19442033712846</v>
       </c>
       <c r="C5" t="n">
-        <v>-5.817121470787114</v>
+        <v>-18.16654616246559</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>68.52343638450832</v>
+        <v>-23.13086661448041</v>
       </c>
       <c r="B6" t="n">
-        <v>-38.1105401534325</v>
+        <v>33.01574729062519</v>
       </c>
       <c r="C6" t="n">
-        <v>59.16821740405358</v>
+        <v>-19.90427882273844</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-35.41940383050948</v>
+        <v>39.70933854371486</v>
       </c>
       <c r="B7" t="n">
-        <v>-35.32747641335912</v>
+        <v>22.10783423252391</v>
       </c>
       <c r="C7" t="n">
-        <v>-23.6224676737231</v>
+        <v>15.89180416516978</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-20.30341430453028</v>
+        <v>18.91943219275926</v>
       </c>
       <c r="B8" t="n">
-        <v>26.20292680723372</v>
+        <v>-21.19580845122351</v>
       </c>
       <c r="C8" t="n">
-        <v>16.31070862482078</v>
+        <v>12.70952300712539</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>30.66649576542867</v>
+        <v>6.984073366980436</v>
       </c>
       <c r="B9" t="n">
-        <v>63.28430944964029</v>
+        <v>36.76211827049734</v>
       </c>
       <c r="C9" t="n">
-        <v>-29.06701787358633</v>
+        <v>-24.06783967435616</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-26.30932821398503</v>
+        <v>-38.09894341079678</v>
       </c>
       <c r="B10" t="n">
-        <v>-12.54232186837317</v>
+        <v>23.08969711078865</v>
       </c>
       <c r="C10" t="n">
-        <v>-32.97651647312487</v>
+        <v>-14.91201761240302</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>27.84279451080382</v>
+        <v>-28.98822494517378</v>
       </c>
       <c r="B11" t="n">
-        <v>-21.93947687920566</v>
+        <v>17.00315814900241</v>
       </c>
       <c r="C11" t="n">
-        <v>-27.66530942857779</v>
+        <v>13.88457045691538</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-14.02333108545467</v>
+        <v>24.65081996131468</v>
       </c>
       <c r="B12" t="n">
-        <v>-17.26309821885586</v>
+        <v>31.4839907326339</v>
       </c>
       <c r="C12" t="n">
-        <v>-21.63839896273016</v>
+        <v>-35.0185807914988</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-34.64120185759727</v>
+        <v>24.82659710603529</v>
       </c>
       <c r="B13" t="n">
-        <v>-23.08563988286752</v>
+        <v>38.06963878903656</v>
       </c>
       <c r="C13" t="n">
-        <v>-30.82357588383642</v>
+        <v>22.67575001089416</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-16.59177579039271</v>
+        <v>28.0584058775427</v>
       </c>
       <c r="B14" t="n">
-        <v>31.90695214802791</v>
+        <v>-27.1959468163336</v>
       </c>
       <c r="C14" t="n">
-        <v>-16.5976583660928</v>
+        <v>18.12286575688729</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>69.82487048103506</v>
+        <v>23.73615454772337</v>
       </c>
       <c r="B15" t="n">
-        <v>61.67649147314839</v>
+        <v>-39.16812840114862</v>
       </c>
       <c r="C15" t="n">
-        <v>1.85555739507512</v>
+        <v>-27.92405847451267</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-17.02956128592852</v>
+        <v>-15.25428962706294</v>
       </c>
       <c r="B16" t="n">
-        <v>-28.51609156171813</v>
+        <v>-40.67767769995318</v>
       </c>
       <c r="C16" t="n">
-        <v>62.40418491623695</v>
+        <v>-27.66586420370175</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-2.480175112042719</v>
+        <v>21.17768846061563</v>
       </c>
       <c r="B17" t="n">
-        <v>47.34914407955335</v>
+        <v>18.65575970666436</v>
       </c>
       <c r="C17" t="n">
-        <v>22.43902129872408</v>
+        <v>-31.35490062099131</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>67.24816445322641</v>
+        <v>-27.01570043811702</v>
       </c>
       <c r="B18" t="n">
-        <v>28.81408144096098</v>
+        <v>-7.694217067568478</v>
       </c>
       <c r="C18" t="n">
-        <v>8.529220906249703</v>
+        <v>-23.85141532081806</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2.099177276517828</v>
+        <v>-29.68894378847444</v>
       </c>
       <c r="B19" t="n">
-        <v>50.70228575175654</v>
+        <v>27.85125666605512</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.332312265455703</v>
+        <v>-20.79557099233626</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-20.16283309521618</v>
+        <v>24.94269957868735</v>
       </c>
       <c r="B20" t="n">
-        <v>-23.87131005825081</v>
+        <v>22.72553945321546</v>
       </c>
       <c r="C20" t="n">
-        <v>47.9946968291664</v>
+        <v>30.94249666017358</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3.94437319029568</v>
+        <v>28.66194783874634</v>
       </c>
       <c r="B21" t="n">
-        <v>-21.16339991330553</v>
+        <v>-29.28477882898624</v>
       </c>
       <c r="C21" t="n">
-        <v>35.71146304955548</v>
+        <v>8.039062670219987</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-10.01957978476157</v>
+        <v>-15.82092376168501</v>
       </c>
       <c r="B22" t="n">
-        <v>-7.040973486329324</v>
+        <v>23.11960905739139</v>
       </c>
       <c r="C22" t="n">
-        <v>57.36594196767033</v>
+        <v>30.66046706163475</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-27.15281463284133</v>
+        <v>-22.56493147877397</v>
       </c>
       <c r="B23" t="n">
-        <v>37.01290152922595</v>
+        <v>20.7542126246403</v>
       </c>
       <c r="C23" t="n">
-        <v>10.11038276672067</v>
+        <v>-18.08455016644887</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-20.19367923475483</v>
+        <v>32.6725401391228</v>
       </c>
       <c r="B24" t="n">
-        <v>-1.275354297919517</v>
+        <v>24.77371185671505</v>
       </c>
       <c r="C24" t="n">
-        <v>-46.48504234146112</v>
+        <v>-35.26554556535709</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>66.76573275570883</v>
+        <v>-18.7696812213026</v>
       </c>
       <c r="B25" t="n">
-        <v>-6.951951513424628</v>
+        <v>-23.99982702760875</v>
       </c>
       <c r="C25" t="n">
-        <v>-25.66845611193803</v>
+        <v>30.41158930258747</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>19.43262467115019</v>
+        <v>25.32646433908313</v>
       </c>
       <c r="B26" t="n">
-        <v>112.3193029139049</v>
+        <v>-25.40076158280185</v>
       </c>
       <c r="C26" t="n">
-        <v>-28.21212220405238</v>
+        <v>24.52430724179809</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2.269416212574946</v>
+        <v>26.38487640806801</v>
       </c>
       <c r="B27" t="n">
-        <v>-18.69146732748402</v>
+        <v>-26.01465109120669</v>
       </c>
       <c r="C27" t="n">
-        <v>8.677769227067323</v>
+        <v>27.39720091624532</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>26.99005418457427</v>
+        <v>-21.6955546833322</v>
       </c>
       <c r="B28" t="n">
-        <v>48.92862220099316</v>
+        <v>-15.223673495128</v>
       </c>
       <c r="C28" t="n">
-        <v>-10.58453147966072</v>
+        <v>42.79688631894125</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>64.42924656266626</v>
+        <v>-23.95013663296042</v>
       </c>
       <c r="B29" t="n">
-        <v>-30.44282257458315</v>
+        <v>18.95456288841945</v>
       </c>
       <c r="C29" t="n">
-        <v>42.09316859074302</v>
+        <v>20.33352141171737</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>34.1999806384583</v>
+        <v>-12.97709057681262</v>
       </c>
       <c r="B30" t="n">
-        <v>37.9702457629251</v>
+        <v>-16.27756517911429</v>
       </c>
       <c r="C30" t="n">
-        <v>75.46786724415607</v>
+        <v>-31.28163637159723</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-26.86190080999077</v>
+        <v>22.9255393460875</v>
       </c>
       <c r="B31" t="n">
-        <v>-5.637122037712331</v>
+        <v>-24.8015316443448</v>
       </c>
       <c r="C31" t="n">
-        <v>21.68470571828636</v>
+        <v>-25.46672025413573</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5.021830553607225</v>
+        <v>38.15058919324493</v>
       </c>
       <c r="B32" t="n">
-        <v>25.2235552030026</v>
+        <v>-17.46149859138996</v>
       </c>
       <c r="C32" t="n">
-        <v>6.135841921534192</v>
+        <v>20.11940427098563</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-32.23698987036587</v>
+        <v>17.81831113171851</v>
       </c>
       <c r="B33" t="n">
-        <v>-18.07457550777566</v>
+        <v>-29.84405547359044</v>
       </c>
       <c r="C33" t="n">
-        <v>-26.13256869653672</v>
+        <v>-30.94939299155846</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-22.50845853554722</v>
+        <v>16.67334832629568</v>
       </c>
       <c r="B34" t="n">
-        <v>20.18426868154287</v>
+        <v>-25.77252862256266</v>
       </c>
       <c r="C34" t="n">
-        <v>63.08079238319172</v>
+        <v>-12.62721096659033</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4.930761759042099</v>
+        <v>30.29195367298817</v>
       </c>
       <c r="B35" t="n">
-        <v>1.923168784790593</v>
+        <v>35.44918242613068</v>
       </c>
       <c r="C35" t="n">
-        <v>29.48657380824811</v>
+        <v>-21.19233661351727</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-16.69096751927182</v>
+        <v>-28.27499207952315</v>
       </c>
       <c r="B36" t="n">
-        <v>-18.60491054323796</v>
+        <v>22.3319214666116</v>
       </c>
       <c r="C36" t="n">
-        <v>-34.71170554763368</v>
+        <v>16.50988211526727</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-20.51895459202991</v>
+        <v>-17.23066638826334</v>
       </c>
       <c r="B37" t="n">
-        <v>18.14094929691417</v>
+        <v>-30.61237834543982</v>
       </c>
       <c r="C37" t="n">
-        <v>-5.964974554847196</v>
+        <v>18.7706061079006</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>31.93108325422269</v>
+        <v>16.5657506554675</v>
       </c>
       <c r="B38" t="n">
-        <v>66.44267128785241</v>
+        <v>18.17725626661915</v>
       </c>
       <c r="C38" t="n">
-        <v>42.86023814101669</v>
+        <v>-33.00025174859677</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-5.675296493456343</v>
+        <v>36.91206367863941</v>
       </c>
       <c r="B39" t="n">
-        <v>17.73446395963402</v>
+        <v>18.1282950838753</v>
       </c>
       <c r="C39" t="n">
-        <v>-21.01148309478853</v>
+        <v>-31.25056660460179</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6.624233368204682</v>
+        <v>-35.92921045409571</v>
       </c>
       <c r="B40" t="n">
-        <v>-35.13340908670951</v>
+        <v>24.0845796829664</v>
       </c>
       <c r="C40" t="n">
-        <v>-32.46144890887943</v>
+        <v>-22.12324046960169</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-24.24242240682905</v>
+        <v>-24.06367125863575</v>
       </c>
       <c r="B41" t="n">
-        <v>-1.638543260475433</v>
+        <v>-42.1144671352921</v>
       </c>
       <c r="C41" t="n">
-        <v>56.7365597164006</v>
+        <v>15.16286274913213</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-14.70181850550126</v>
+        <v>30.6827529924007</v>
       </c>
       <c r="B42" t="n">
-        <v>23.48555288965397</v>
+        <v>35.10106726835586</v>
       </c>
       <c r="C42" t="n">
-        <v>28.78247996029445</v>
+        <v>19.76184807207393</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>18.40128096004601</v>
+        <v>-27.43623067116339</v>
       </c>
       <c r="B43" t="n">
-        <v>-25.51906448842221</v>
+        <v>-10.65314697589564</v>
       </c>
       <c r="C43" t="n">
-        <v>-7.530252112691114</v>
+        <v>-6.833178677301535</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-19.1773985565899</v>
+        <v>-16.19509783678289</v>
       </c>
       <c r="B44" t="n">
-        <v>-38.51582976041752</v>
+        <v>4.99548153059507</v>
       </c>
       <c r="C44" t="n">
-        <v>-24.44582387522947</v>
+        <v>-34.505212352623</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>25.35151671392077</v>
+        <v>27.22159354808037</v>
       </c>
       <c r="B45" t="n">
-        <v>61.98540870553892</v>
+        <v>-8.511194925928919</v>
       </c>
       <c r="C45" t="n">
-        <v>23.62228750659415</v>
+        <v>-31.54593601144592</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>51.89153749459844</v>
+        <v>20.03096484258201</v>
       </c>
       <c r="B46" t="n">
-        <v>-4.004125774602486</v>
+        <v>-33.69853945488814</v>
       </c>
       <c r="C46" t="n">
-        <v>-33.92290816311758</v>
+        <v>9.482544190560873</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-25.52610171987065</v>
+        <v>24.73246479994595</v>
       </c>
       <c r="B47" t="n">
-        <v>-39.22486610617712</v>
+        <v>11.35244969146679</v>
       </c>
       <c r="C47" t="n">
-        <v>-12.0497316595331</v>
+        <v>34.61929817185464</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-16.78982572181615</v>
+        <v>-35.55638295949788</v>
       </c>
       <c r="B48" t="n">
-        <v>-19.71071280176773</v>
+        <v>-18.02959864868103</v>
       </c>
       <c r="C48" t="n">
-        <v>43.5407217408951</v>
+        <v>34.56221609794286</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-11.38267563778022</v>
+        <v>28.05060904652796</v>
       </c>
       <c r="B49" t="n">
-        <v>-16.02431702771392</v>
+        <v>-26.06788786321875</v>
       </c>
       <c r="C49" t="n">
-        <v>-18.69490393241848</v>
+        <v>-39.01298976918783</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-36.89910886748646</v>
+        <v>-35.41841223256566</v>
       </c>
       <c r="B50" t="n">
-        <v>21.31956937795599</v>
+        <v>-28.41487413540544</v>
       </c>
       <c r="C50" t="n">
-        <v>-28.69548437867316</v>
+        <v>-35.61770597227824</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-33.52658240943973</v>
+        <v>-23.02291703809597</v>
       </c>
       <c r="B51" t="n">
-        <v>-24.0437853340509</v>
+        <v>22.69658805137257</v>
       </c>
       <c r="C51" t="n">
-        <v>26.75169003881123</v>
+        <v>28.22859311630852</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-19.26659848133908</v>
+        <v>17.56082638992678</v>
       </c>
       <c r="B52" t="n">
-        <v>32.03289365401666</v>
+        <v>19.76694578700538</v>
       </c>
       <c r="C52" t="n">
-        <v>36.27573671385174</v>
+        <v>-14.83949882559066</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>43.41880182010464</v>
+        <v>38.74447705308359</v>
       </c>
       <c r="B53" t="n">
-        <v>-27.6938574775574</v>
+        <v>17.42340872281008</v>
       </c>
       <c r="C53" t="n">
-        <v>-25.33691844162755</v>
+        <v>-30.67206698791261</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-28.28385971616014</v>
+        <v>31.04369085131148</v>
       </c>
       <c r="B54" t="n">
-        <v>27.79999395880215</v>
+        <v>36.51452324384248</v>
       </c>
       <c r="C54" t="n">
-        <v>-29.36200938614919</v>
+        <v>16.80524286950044</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>50.79196788374092</v>
+        <v>33.62000838200156</v>
       </c>
       <c r="B55" t="n">
-        <v>24.78486891678662</v>
+        <v>-28.28189818359979</v>
       </c>
       <c r="C55" t="n">
-        <v>13.4267947239591</v>
+        <v>-28.39549717695781</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-22.23633139945451</v>
+        <v>-10.91516677493603</v>
       </c>
       <c r="B56" t="n">
-        <v>15.6190566213037</v>
+        <v>23.59242018025031</v>
       </c>
       <c r="C56" t="n">
-        <v>6.163489361463736</v>
+        <v>-19.12420201344466</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>39.99937140918566</v>
+        <v>23.40837438260512</v>
       </c>
       <c r="B57" t="n">
-        <v>-38.73286077479871</v>
+        <v>-8.927764782711209</v>
       </c>
       <c r="C57" t="n">
-        <v>16.72727973015432</v>
+        <v>-34.3434958220628</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-15.79287305166571</v>
+        <v>-41.11585509656216</v>
       </c>
       <c r="B58" t="n">
-        <v>17.59120907206277</v>
+        <v>13.06347536858764</v>
       </c>
       <c r="C58" t="n">
-        <v>-21.37381208940584</v>
+        <v>-24.70802426805687</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-23.61416253357918</v>
+        <v>-22.37039317633209</v>
       </c>
       <c r="B59" t="n">
-        <v>-23.9087028423556</v>
+        <v>-3.551773410946119</v>
       </c>
       <c r="C59" t="n">
-        <v>-27.78587794446464</v>
+        <v>-39.1744871932405</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>18.57602246748239</v>
+        <v>15.58723614348562</v>
       </c>
       <c r="B60" t="n">
-        <v>-22.15889484232653</v>
+        <v>30.02932165730632</v>
       </c>
       <c r="C60" t="n">
-        <v>-24.70640842135652</v>
+        <v>15.40316183223758</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>32.38293767607809</v>
+        <v>22.36927703943251</v>
       </c>
       <c r="B61" t="n">
-        <v>31.31731562197355</v>
+        <v>-23.79865123817812</v>
       </c>
       <c r="C61" t="n">
-        <v>-6.189526819976402</v>
+        <v>25.75800079173554</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>15.24149185847964</v>
+        <v>-33.49369061237171</v>
       </c>
       <c r="B62" t="n">
-        <v>42.37412987166669</v>
+        <v>-30.51399979097777</v>
       </c>
       <c r="C62" t="n">
-        <v>-18.54299169345652</v>
+        <v>-25.81043601132766</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>67.26388806954435</v>
+        <v>13.3328865158532</v>
       </c>
       <c r="B63" t="n">
-        <v>-27.37794203072163</v>
+        <v>35.93054303184807</v>
       </c>
       <c r="C63" t="n">
-        <v>38.08422494146312</v>
+        <v>26.76473314997347</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>3.1814865162933</v>
+        <v>31.33791327590215</v>
       </c>
       <c r="B64" t="n">
-        <v>24.06193647437022</v>
+        <v>-27.23832117973685</v>
       </c>
       <c r="C64" t="n">
-        <v>-25.6245797056845</v>
+        <v>25.30638891255391</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-24.26796032272707</v>
+        <v>25.58730326774481</v>
       </c>
       <c r="B65" t="n">
-        <v>72.12155652993701</v>
+        <v>22.96095702848731</v>
       </c>
       <c r="C65" t="n">
-        <v>3.677426840304001</v>
+        <v>20.42042451944514</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>53.05552343339819</v>
+        <v>-26.94986439706734</v>
       </c>
       <c r="B66" t="n">
-        <v>-26.16117443353005</v>
+        <v>-17.54506979781932</v>
       </c>
       <c r="C66" t="n">
-        <v>-13.913340131574</v>
+        <v>30.80106303018081</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>54.25516869921687</v>
+        <v>23.62899404502588</v>
       </c>
       <c r="B67" t="n">
-        <v>-15.77228588249391</v>
+        <v>-31.76804308974801</v>
       </c>
       <c r="C67" t="n">
-        <v>32.44142922850552</v>
+        <v>15.39025330461114</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-1.092268512378662</v>
+        <v>-16.29943067581435</v>
       </c>
       <c r="B68" t="n">
-        <v>47.30774533302297</v>
+        <v>27.29120519537503</v>
       </c>
       <c r="C68" t="n">
-        <v>37.77457482795723</v>
+        <v>-20.8170808117737</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.12531143838383</v>
+        <v>-27.64354821652092</v>
       </c>
       <c r="B69" t="n">
-        <v>24.42153410867232</v>
+        <v>-27.87914834471838</v>
       </c>
       <c r="C69" t="n">
-        <v>-38.11806616427526</v>
+        <v>-30.43946510474695</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-24.74202931431059</v>
+        <v>13.79186192463712</v>
       </c>
       <c r="B70" t="n">
-        <v>-12.96190328005246</v>
+        <v>-27.37984927517637</v>
       </c>
       <c r="C70" t="n">
-        <v>31.01980594556728</v>
+        <v>-27.02983741866019</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-28.72658823301688</v>
+        <v>17.71250086036334</v>
       </c>
       <c r="B71" t="n">
-        <v>31.82597999888056</v>
+        <v>23.1464162215929</v>
       </c>
       <c r="C71" t="n">
-        <v>-35.9532230739674</v>
+        <v>-26.04938544766498</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-19.37801471015634</v>
+        <v>-34.17035239140004</v>
       </c>
       <c r="B72" t="n">
-        <v>28.10929866839573</v>
+        <v>17.10914278834873</v>
       </c>
       <c r="C72" t="n">
-        <v>-11.99523296152761</v>
+        <v>12.27087338723938</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-27.01583711616344</v>
+        <v>-27.41680803118122</v>
       </c>
       <c r="B73" t="n">
-        <v>-3.853143419783204</v>
+        <v>26.76356117823685</v>
       </c>
       <c r="C73" t="n">
-        <v>-32.82210282575218</v>
+        <v>-19.9025428770618</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-31.57039878970122</v>
+        <v>-0.09734577284366891</v>
       </c>
       <c r="B74" t="n">
-        <v>-25.98719673703423</v>
+        <v>28.52247733912695</v>
       </c>
       <c r="C74" t="n">
-        <v>2.405168387278091</v>
+        <v>-21.52162445638715</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>27.60579713116173</v>
+        <v>11.71503025948039</v>
       </c>
       <c r="B75" t="n">
-        <v>-22.7085316927764</v>
+        <v>-16.14687202087241</v>
       </c>
       <c r="C75" t="n">
-        <v>-14.66006780883454</v>
+        <v>-25.47876192354781</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-23.61843325088335</v>
+        <v>31.28163183157959</v>
       </c>
       <c r="B76" t="n">
-        <v>-16.30453210778693</v>
+        <v>-31.99097413279974</v>
       </c>
       <c r="C76" t="n">
-        <v>23.2322323485975</v>
+        <v>31.9487381792119</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>34.36240195366936</v>
+        <v>-32.49907881062286</v>
       </c>
       <c r="B77" t="n">
-        <v>-27.27590823698978</v>
+        <v>-24.97302150205256</v>
       </c>
       <c r="C77" t="n">
-        <v>17.9081598773264</v>
+        <v>33.70347315593104</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1.365578903207895</v>
+        <v>35.48080497572823</v>
       </c>
       <c r="B78" t="n">
-        <v>-17.67591324826676</v>
+        <v>38.87266755247745</v>
       </c>
       <c r="C78" t="n">
-        <v>-17.49426366845324</v>
+        <v>-26.59850335531087</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-34.32285181975097</v>
+        <v>22.11958519059425</v>
       </c>
       <c r="B79" t="n">
-        <v>16.42833132441359</v>
+        <v>-45.27737720603125</v>
       </c>
       <c r="C79" t="n">
-        <v>-19.56974991472449</v>
+        <v>40.84748439879444</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>32.47485559591794</v>
+        <v>-25.01034683498855</v>
       </c>
       <c r="B80" t="n">
-        <v>-24.5618169300428</v>
+        <v>41.17578738262468</v>
       </c>
       <c r="C80" t="n">
-        <v>42.18003627895799</v>
+        <v>17.57078776292227</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>65.21462296275801</v>
+        <v>34.67091567228143</v>
       </c>
       <c r="B81" t="n">
-        <v>-4.470673663302883</v>
+        <v>24.99230059920517</v>
       </c>
       <c r="C81" t="n">
-        <v>27.56851246335957</v>
+        <v>-29.34393682314163</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-2.674781106189198</v>
+        <v>26.31209289701698</v>
       </c>
       <c r="B82" t="n">
-        <v>-18.72519923595697</v>
+        <v>24.78250442489179</v>
       </c>
       <c r="C82" t="n">
-        <v>21.84481574618588</v>
+        <v>27.43190454016228</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-18.66371989553094</v>
+        <v>-28.03403001347473</v>
       </c>
       <c r="B83" t="n">
-        <v>13.84502886662653</v>
+        <v>-32.839026668669</v>
       </c>
       <c r="C83" t="n">
-        <v>-21.36601276788283</v>
+        <v>28.83540108715558</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-24.2233098912991</v>
+        <v>-26.44848120845284</v>
       </c>
       <c r="B84" t="n">
-        <v>-11.42950249089887</v>
+        <v>28.52448089105497</v>
       </c>
       <c r="C84" t="n">
-        <v>20.20935775160258</v>
+        <v>29.1204198532661</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>21.12518271689825</v>
+        <v>-20.39940480826091</v>
       </c>
       <c r="B85" t="n">
-        <v>-8.241743365104492</v>
+        <v>35.44027727434503</v>
       </c>
       <c r="C85" t="n">
-        <v>-29.49614304517026</v>
+        <v>17.37371651224862</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-9.701982726232458</v>
+        <v>-26.21098205169682</v>
       </c>
       <c r="B86" t="n">
-        <v>-36.55085778599083</v>
+        <v>19.07607302157857</v>
       </c>
       <c r="C86" t="n">
-        <v>24.32954259701558</v>
+        <v>27.3157200194352</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-8.501104760280908</v>
+        <v>-15.61176636839709</v>
       </c>
       <c r="B87" t="n">
-        <v>9.797078394009054</v>
+        <v>26.90831665963348</v>
       </c>
       <c r="C87" t="n">
-        <v>-19.54582838060253</v>
+        <v>-38.0970328028349</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1.549262659727547</v>
+        <v>-18.37951770705128</v>
       </c>
       <c r="B88" t="n">
-        <v>57.68356204669784</v>
+        <v>-23.43564067120624</v>
       </c>
       <c r="C88" t="n">
-        <v>2.802079104245248</v>
+        <v>-20.27196472097836</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>-21.02382069596587</v>
+        <v>25.46938338539701</v>
       </c>
       <c r="B89" t="n">
-        <v>-42.59921887869624</v>
+        <v>-20.80873820034893</v>
       </c>
       <c r="C89" t="n">
-        <v>20.21226474197404</v>
+        <v>-24.80981686111199</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>20.59519988879905</v>
+        <v>-24.89313659523819</v>
       </c>
       <c r="B90" t="n">
-        <v>40.9517034416908</v>
+        <v>26.78037357888028</v>
       </c>
       <c r="C90" t="n">
-        <v>-28.27854774239132</v>
+        <v>-18.76955694998588</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>42.42670269024354</v>
+        <v>-15.26675217365561</v>
       </c>
       <c r="B91" t="n">
-        <v>0.9590206314381521</v>
+        <v>32.12526735285186</v>
       </c>
       <c r="C91" t="n">
-        <v>-23.78855261446925</v>
+        <v>-36.40387638762073</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-27.47245954394215</v>
+        <v>-33.96138676458597</v>
       </c>
       <c r="B92" t="n">
-        <v>-26.82788353533607</v>
+        <v>36.594946770128</v>
       </c>
       <c r="C92" t="n">
-        <v>-17.90013234043161</v>
+        <v>-19.63751528666097</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-23.58310418824925</v>
+        <v>-27.63760410396889</v>
       </c>
       <c r="B93" t="n">
-        <v>13.74173592838208</v>
+        <v>32.4542231357541</v>
       </c>
       <c r="C93" t="n">
-        <v>-20.55983665934827</v>
+        <v>-26.0699131623319</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-10.86537649410798</v>
+        <v>26.08754257432708</v>
       </c>
       <c r="B94" t="n">
-        <v>-23.13011890119893</v>
+        <v>-34.06670026668265</v>
       </c>
       <c r="C94" t="n">
-        <v>-22.89000954776307</v>
+        <v>-18.32597426080385</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>27.29673735835418</v>
+        <v>-24.86083745360792</v>
       </c>
       <c r="B95" t="n">
-        <v>51.93371934768481</v>
+        <v>28.06248276255764</v>
       </c>
       <c r="C95" t="n">
-        <v>-10.81933976923675</v>
+        <v>-25.80932810409993</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>-18.41074829895793</v>
+        <v>-40.78776652687339</v>
       </c>
       <c r="B96" t="n">
-        <v>18.50036940634268</v>
+        <v>-16.40850284459203</v>
       </c>
       <c r="C96" t="n">
-        <v>-24.51292576149948</v>
+        <v>-21.7602912954006</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>7.521757579901975</v>
+        <v>-11.61465170437734</v>
       </c>
       <c r="B97" t="n">
-        <v>-5.785133278622807</v>
+        <v>-24.98270905025315</v>
       </c>
       <c r="C97" t="n">
-        <v>-19.8586451719165</v>
+        <v>-12.47064691042585</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>36.05252329080073</v>
+        <v>-24.5115598075054</v>
       </c>
       <c r="B98" t="n">
-        <v>-8.161923684791804</v>
+        <v>-32.81301523266598</v>
       </c>
       <c r="C98" t="n">
-        <v>-25.88816513406288</v>
+        <v>-27.11374699938596</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-25.57697868811357</v>
+        <v>-35.16178595219252</v>
       </c>
       <c r="B99" t="n">
-        <v>29.58732089755182</v>
+        <v>23.85830989459937</v>
       </c>
       <c r="C99" t="n">
-        <v>23.36003251808591</v>
+        <v>-22.49688498511173</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-20.36714920024894</v>
+        <v>-29.49557295302118</v>
       </c>
       <c r="B100" t="n">
-        <v>76.59075255503011</v>
+        <v>-34.17701534615186</v>
       </c>
       <c r="C100" t="n">
-        <v>-28.17197452730012</v>
+        <v>24.18308083381013</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-27.88225409681064</v>
+        <v>38.64453781458216</v>
       </c>
       <c r="B101" t="n">
-        <v>1.089668136804197</v>
+        <v>-33.31210740579943</v>
       </c>
       <c r="C101" t="n">
-        <v>-38.52325905951398</v>
+        <v>27.3550417572222</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-22.02077513423548</v>
+        <v>9.235898635128763</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-17.27062683306043</v>
+        <v>-28.05991509734055</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -3261,7 +3261,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-27.86891370468574</v>
+        <v>18.44916900907005</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -3272,7 +3272,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-4.915399298343185</v>
+        <v>33.85280757134387</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>14.40981169171068</v>
+        <v>-26.96267546152543</v>
       </c>
       <c r="B106" t="n">
         <v>0</v>
@@ -3294,7 +3294,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-21.28796203155765</v>
+        <v>-29.129425767586</v>
       </c>
       <c r="B107" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>32.02307607110998</v>
+        <v>41.35981229603482</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-12.0900858576628</v>
+        <v>18.52681179034889</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -3327,7 +3327,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-24.74521737028569</v>
+        <v>-11.0091970405171</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -3338,7 +3338,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-19.00855198664918</v>
+        <v>20.97183460032825</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -3349,7 +3349,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>8.696312840835947</v>
+        <v>-11.93138310031046</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -3360,7 +3360,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-20.71969879194373</v>
+        <v>24.64735850441835</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -3371,7 +3371,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-38.95959567039085</v>
+        <v>-19.77352741441886</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -3382,7 +3382,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>16.67041208576508</v>
+        <v>40.46905810137815</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-19.17518601446834</v>
+        <v>18.36891984326676</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -3404,7 +3404,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-28.96636324385306</v>
+        <v>14.36647069346863</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -3415,7 +3415,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-15.36967048677037</v>
+        <v>11.24515813780849</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>29.22158544511822</v>
+        <v>-22.53007285967397</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -3437,7 +3437,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>24.49844128789644</v>
+        <v>-25.46154709394837</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -3448,7 +3448,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-33.05848592114151</v>
+        <v>17.20952015794668</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -3459,7 +3459,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-23.55871538040401</v>
+        <v>27.07880430000325</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-17.62558898209751</v>
+        <v>17.74252032252356</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>46.06965600253314</v>
+        <v>38.24644596879428</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>13.95852123963965</v>
+        <v>12.36101802267236</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -3503,7 +3503,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>3.653260656940262</v>
+        <v>-37.8862000408077</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>10.39954981943605</v>
+        <v>18.52260509209113</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -3525,7 +3525,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>8.901374885662081</v>
+        <v>-26.54272455719313</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -3536,7 +3536,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-28.35076763809571</v>
+        <v>-25.59482092761418</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -3547,7 +3547,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-21.68665900619643</v>
+        <v>33.26745545494142</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -3558,7 +3558,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-31.94803552769086</v>
+        <v>11.65256847136566</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-33.44272829565266</v>
+        <v>26.26340455370243</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -3580,7 +3580,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-26.7600328772966</v>
+        <v>-24.57769042033449</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -3591,7 +3591,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>23.92572320412486</v>
+        <v>24.02947414568836</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>46.80255792851496</v>
+        <v>30.88163951193472</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -3613,7 +3613,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>32.80033957871718</v>
+        <v>-35.70708786761278</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -3624,7 +3624,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>42.31495786239761</v>
+        <v>22.6354344671669</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>60.77662687768265</v>
+        <v>-27.39691604808607</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -3646,7 +3646,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>-25.43989409015514</v>
+        <v>31.88434892496641</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -3657,7 +3657,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-20.27806953993744</v>
+        <v>-26.94567561616392</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -3668,7 +3668,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>28.97331728566433</v>
+        <v>-24.88392052702497</v>
       </c>
       <c r="B141" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>23.8911352862932</v>
+        <v>-26.13514544943463</v>
       </c>
       <c r="B142" t="n">
         <v>0</v>
@@ -3690,7 +3690,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>-19.26018917267115</v>
+        <v>-10.95157893227705</v>
       </c>
       <c r="B143" t="n">
         <v>0</v>
@@ -3701,7 +3701,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>-37.94442781531234</v>
+        <v>25.06957461730352</v>
       </c>
       <c r="B144" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>-35.52031071660686</v>
+        <v>41.82199171604417</v>
       </c>
       <c r="B145" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>-18.93739155871148</v>
+        <v>23.84748478144304</v>
       </c>
       <c r="B146" t="n">
         <v>0</v>
@@ -3734,7 +3734,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>-28.18412215214608</v>
+        <v>7.527592145553387</v>
       </c>
       <c r="B147" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>-13.6082265322843</v>
+        <v>36.18525087835588</v>
       </c>
       <c r="B148" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>-29.7614146512023</v>
+        <v>22.7299847142564</v>
       </c>
       <c r="B149" t="n">
         <v>0</v>
@@ -3767,7 +3767,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>17.5592034112383</v>
+        <v>-34.64608441987538</v>
       </c>
       <c r="B150" t="n">
         <v>0</v>
@@ -3778,7 +3778,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>-28.25235367495917</v>
+        <v>-29.29837599159564</v>
       </c>
       <c r="B151" t="n">
         <v>0</v>
